--- a/exp2/exp1.xlsx
+++ b/exp2/exp1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/Desktop/repo/IntelligentOptimizationMethods/exp2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8C6F13-89BD-FC44-A3FE-ECD95E6CD233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8193D18B-EAB1-FC48-A763-ED373DFBFE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27600" windowHeight="16940" xr2:uid="{F94D0709-55CF-5244-9975-16BB465AB187}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AC$1:$AE$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -358,17 +358,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1617,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952CBAC1-37B3-5D45-B0A0-E7D39ECD0127}">
   <dimension ref="A1:L508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F499" sqref="F499"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
@@ -1650,17 +1650,17 @@
       <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="25" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -20737,7 +20737,7 @@
       </c>
     </row>
     <row r="507" spans="1:12" ht="35">
-      <c r="E507" s="19" t="s">
+      <c r="E507" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F507" s="2">
@@ -20754,7 +20754,7 @@
       </c>
     </row>
     <row r="508" spans="1:12" ht="35">
-      <c r="E508" s="19" t="s">
+      <c r="E508" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F508" s="2">
